--- a/P4/Cuestionario SUS DIU.xlsx
+++ b/P4/Cuestionario SUS DIU.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
-  <si>
-    <t>EQUIPO:                                           (fecha)</t>
-  </si>
-  <si>
-    <t>TEST A:</t>
-  </si>
-  <si>
-    <t>TEST B:</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+  <si>
+    <t xml:space="preserve">EQUIPO:                                           (fecha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST A: Cherry Trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST B: Afterwork</t>
   </si>
   <si>
     <t xml:space="preserve">DISEÑO DE INTERFACES DE USUARIO </t>
   </si>
   <si>
-    <t xml:space="preserve">Web: </t>
+    <t xml:space="preserve">Web: asmilex.github.io/DIU21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web: https://github.com/VictorRubia/DIU21</t>
   </si>
   <si>
     <t xml:space="preserve">PRACTICA 4 - Cuestionario SUS </t>
@@ -40,40 +45,88 @@
     <t xml:space="preserve">USUARIO ID: </t>
   </si>
   <si>
-    <t>#USER1</t>
-  </si>
-  <si>
-    <t>#USER2</t>
-  </si>
-  <si>
-    <t>#USER3</t>
-  </si>
-  <si>
-    <t>#USER4</t>
+    <t xml:space="preserve">#USER1 María</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#USER2 Rubén</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#USER3 Jose Ángel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#USER4 Olga</t>
   </si>
   <si>
     <t>SEXO</t>
   </si>
   <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
     <t>EDAD</t>
   </si>
   <si>
     <t>OCUPACION</t>
   </si>
   <si>
-    <t>EXPERIENCIA TIC</t>
-  </si>
-  <si>
-    <t>PERFIL (describir)</t>
-  </si>
-  <si>
-    <t>1: Completamente en desacuerdo</t>
-  </si>
-  <si>
-    <t>5: completamente de acuerdo</t>
-  </si>
-  <si>
-    <t>CUESTIONARIO SUS</t>
+    <t xml:space="preserve">Traductora en una estación de radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planificador de bodas</t>
+  </si>
+  <si>
+    <t>Dentista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocinera internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXPERIENCIA TIC</t>
+  </si>
+  <si>
+    <t>8/10</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERFIL (describir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adulta, idiomas, miedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movilidad reducida, bailonga, disgustada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familia, ajetreado, disgustado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persona zen, idiomas, alegre</t>
+  </si>
+  <si>
+    <t>PLATAFORMA</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>Móvil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1: Completamente en desacuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5: completamente de acuerdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUESTIONARIO SUS</t>
   </si>
   <si>
     <r>
@@ -127,59 +180,46 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">Valoracion </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>User3</t>
-    </r>
-    <r>
-      <rPr/>
-      <t xml:space="preserve">  (entre 1-5)</t>
-    </r>
-  </si>
-  <si>
-    <t>Creo que me gustará visitar con frecuencia este website</t>
-  </si>
-  <si>
-    <t>Encontré el website innecesariamente complejo</t>
-  </si>
-  <si>
-    <t>Pensé que era fácil utilizar este website</t>
-  </si>
-  <si>
-    <t>Creo que necesitaría del apoyo de un experto para recorrer el website</t>
-  </si>
-  <si>
-    <t>Encontré las funciones del website bastante bien integradas</t>
-  </si>
-  <si>
-    <t>Pensé que había demasiada inconsistencia en el website</t>
-  </si>
-  <si>
-    <t>Imagino que la mayoría de las personas aprenderían muy rápidamente a utilizar el website</t>
-  </si>
-  <si>
-    <t>Encontré el website muy grande al recorrerlo</t>
-  </si>
-  <si>
-    <t>Me sentí muy confiado en el manejo del website</t>
-  </si>
-  <si>
-    <t>Necesito aprender muchas cosas antes de manejarme en el website</t>
+    <t xml:space="preserve">Creo que me gustará visitar con frecuencia este website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontré el website innecesariamente complejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensé que era fácil utilizar este website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creo que necesitaría del apoyo de un experto para recorrer el website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontré las funciones del website bastante bien integradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pensé que había demasiada inconsistencia en el website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagino que la mayoría de las personas aprenderían muy rápidamente a utilizar el website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encontré el website muy grande al recorrerlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me sentí muy confiado en el manejo del website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necesito aprender muchas cosas antes de manejarme en el website</t>
   </si>
   <si>
     <t xml:space="preserve">VALORACION FINAL </t>
   </si>
   <si>
-    <t>NO ACEPTABLE (SI ES &lt;40)</t>
-  </si>
-  <si>
-    <t>MARGINAL (LOW  40-60)</t>
+    <t xml:space="preserve">NO ACEPTABLE (SI ES &lt;40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARGINAL (LOW  40-60)</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <r>
@@ -200,7 +240,7 @@
   <si>
     <r>
       <rPr/>
-      <t>ACEPTABLE TIPO</t>
+      <t xml:space="preserve">ACEPTABLE TIPO</t>
     </r>
     <r>
       <rPr>
@@ -210,7 +250,7 @@
     </r>
     <r>
       <rPr/>
-      <t>(GOOD 70-80)</t>
+      <t xml:space="preserve">(GOOD 70-80)</t>
     </r>
   </si>
   <si>
@@ -226,7 +266,7 @@
     </r>
     <r>
       <rPr/>
-      <t>(EXECELENT 70-80)</t>
+      <t xml:space="preserve">(EXECELENT 80-90)</t>
     </r>
   </si>
   <si>
@@ -242,7 +282,7 @@
     </r>
     <r>
       <rPr/>
-      <t>(THE BEST 90-100)</t>
+      <t xml:space="preserve">(THE BEST 90-100)</t>
     </r>
   </si>
   <si>
@@ -255,12 +295,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <color indexed="64"/>
+      <sz val="10.000000"/>
     </font>
     <font/>
     <font>
@@ -270,17 +310,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <sz val="12.0"/>
-      <name val="Arial"/>
+      <sz val="12.000000"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b/>
-      <name val="Arial"/>
     </font>
     <font>
+      <color indexed="4"/>
       <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -288,7 +328,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -304,62 +344,89 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
     <border>
-      <left style="thick">
-        <color rgb="FF0000FF"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0000FF"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="FF0000FF"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF0000FF"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </left>
+      <right/>
       <top style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
-      <right style="thick">
-        <color rgb="FF00FF00"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </top>
       <bottom style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0000FF"/>
+        <color indexed="3"/>
       </left>
+      <right/>
+      <top style="thick">
+        <color indexed="3"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="3"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </right>
+      <top style="thick">
+        <color indexed="3"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="3"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="4"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -374,21 +441,24 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0000FF"/>
+        <color indexed="4"/>
       </left>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
@@ -399,10 +469,11 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </left>
       <right style="thin">
         <color rgb="FFCCCCCC"/>
@@ -413,13 +484,14 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCCC"/>
@@ -427,203 +499,606 @@
       <bottom style="thin">
         <color rgb="FFCCCCCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF0000FF"/>
+        <color indexed="4"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color rgb="FF0000FF"/>
+        <color indexed="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color rgb="FF0000FF"/>
+        <color indexed="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </right>
+      <top/>
       <bottom style="thick">
-        <color rgb="FF00FF00"/>
+        <color indexed="3"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="44">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="15" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf fontId="1" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="2" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="1" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="3" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="3" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="3" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="4" fillId="3" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+  <a:themeElements>
+    <a:clrScheme name="">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill/>
+        <a:solidFill/>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="1"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.29"/>
-    <col customWidth="1" min="2" max="2" width="50.71"/>
-    <col customWidth="1" min="3" max="3" width="27.86"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="27.86"/>
-    <col customWidth="1" min="5" max="7" width="27.86"/>
-    <col customWidth="1" min="8" max="8" width="22.0"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="3.29"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="50.710000000000001"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="27.859999999999999"/>
+    <col customWidth="1" min="4" max="4" width="14.8515625"/>
+    <col bestFit="1" customWidth="1" min="5" max="7" width="27.859999999999999"/>
+    <col bestFit="1" customWidth="1" min="8" max="8" width="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" customHeight="1">
@@ -646,429 +1121,571 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" ht="15.0" customHeight="1">
+    <row r="4" ht="15" customHeight="1">
       <c r="B4" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="8">
+        <v>35</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10">
+        <v>55</v>
+      </c>
+      <c r="F6" s="12">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="B7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="20.25" customHeight="1">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="33" customHeight="1">
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" ht="38.25" customHeight="1">
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="C12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="28">
+        <v>1</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="30">
+        <v>3</v>
+      </c>
+      <c r="D14" s="31">
+        <f>C14-1</f>
+        <v>2</v>
+      </c>
+      <c r="E14" s="32">
+        <v>5</v>
+      </c>
+      <c r="F14" s="33">
+        <v>2</v>
+      </c>
+      <c r="G14" s="34">
+        <v>3</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" ht="25.5" customHeight="1">
+      <c r="A15" s="28">
+        <v>2</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="30">
+        <v>1</v>
+      </c>
+      <c r="D15" s="31">
+        <f>5-C15</f>
+        <v>4</v>
+      </c>
+      <c r="E15" s="32">
+        <v>3</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="28">
+        <v>3</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="30">
+        <v>5</v>
+      </c>
+      <c r="D16" s="31">
+        <f>C16-1</f>
+        <v>4</v>
+      </c>
+      <c r="E16" s="32">
+        <v>4</v>
+      </c>
+      <c r="F16" s="35">
+        <v>4</v>
+      </c>
+      <c r="G16" s="34">
+        <v>4</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="28">
+        <v>4</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="31">
+        <f>5-C17</f>
+        <v>4</v>
+      </c>
+      <c r="E17" s="32">
+        <v>3</v>
+      </c>
+      <c r="F17" s="33">
+        <v>3</v>
+      </c>
+      <c r="G17" s="34">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="28">
+        <v>5</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="30">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31">
+        <f>C18-1</f>
+        <v>3</v>
+      </c>
+      <c r="E18" s="32">
+        <v>4</v>
+      </c>
+      <c r="F18" s="33">
+        <v>4</v>
+      </c>
+      <c r="G18" s="34">
+        <v>3</v>
+      </c>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="28">
+        <v>6</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2</v>
+      </c>
+      <c r="D19" s="31">
+        <f>5-C19</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1</v>
+      </c>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="28">
+        <v>7</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="30">
+        <v>5</v>
+      </c>
+      <c r="D20" s="31">
+        <f>C20-1</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="32">
+        <v>5</v>
+      </c>
+      <c r="F20" s="33">
+        <v>4</v>
+      </c>
+      <c r="G20" s="34">
+        <v>4</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="28">
+        <v>8</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="31">
+        <f>5-C21</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="32">
+        <v>3</v>
+      </c>
+      <c r="F21" s="33">
+        <v>3</v>
+      </c>
+      <c r="G21" s="34">
+        <v>2</v>
+      </c>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="28">
+        <v>9</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="30">
+        <v>4</v>
+      </c>
+      <c r="D22" s="31">
+        <f>C22-1</f>
+        <v>3</v>
+      </c>
+      <c r="E22" s="32">
+        <v>3</v>
+      </c>
+      <c r="F22" s="33">
+        <v>3</v>
+      </c>
+      <c r="G22" s="34">
+        <v>3</v>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="A23" s="28">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="15.0" customHeight="1">
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="15.0" customHeight="1">
-      <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="1">
-      <c r="B7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="15.0" customHeight="1">
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="15.0" customHeight="1">
-      <c r="B9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" ht="9.75" customHeight="1">
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="A14" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28">
-        <f>C14-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" ht="25.5" customHeight="1">
-      <c r="A15" s="25">
-        <v>2.0</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28">
-        <f>5-C15</f>
-        <v>5</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" ht="25.5" customHeight="1">
-      <c r="A16" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28">
-        <f>C16-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" ht="25.5" customHeight="1">
-      <c r="A17" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28">
-        <f>5-C17</f>
-        <v>5</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" ht="25.5" customHeight="1">
-      <c r="A18" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28">
-        <f>C18-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="A19" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28">
-        <f>5-C19</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" ht="25.5" customHeight="1">
-      <c r="A20" s="25">
-        <v>7.0</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28">
-        <f>C20-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" ht="25.5" customHeight="1">
-      <c r="A21" s="25">
-        <v>8.0</v>
-      </c>
-      <c r="B21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28">
-        <f>5-C21</f>
-        <v>5</v>
-      </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="A22" s="25">
-        <v>9.0</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28">
-        <f>C22-1</f>
-        <v>-1</v>
-      </c>
-      <c r="E22" s="29"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" ht="25.5" customHeight="1">
-      <c r="A23" s="25">
-        <v>10.0</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28">
+      <c r="B23" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="30">
+        <v>2</v>
+      </c>
+      <c r="D23" s="31">
         <f>5-C23</f>
-        <v>5</v>
-      </c>
-      <c r="E23" s="29"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+        <v>3</v>
+      </c>
+      <c r="E23" s="32">
+        <v>2</v>
+      </c>
+      <c r="F23" s="33">
+        <v>3</v>
+      </c>
+      <c r="G23" s="34">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="35">
-        <f> ((C14-1)+(5-C15)+(C16-1)+(5-C17)+(C18-1)+(5-C19)+(C20-1)+(5-C21)+(C22-1)+(5-C23))*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="D24" s="36">
+      <c r="A24" s="21"/>
+      <c r="B24" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="36">
+        <f>((C14-1)+(5-C15)+(C16-1)+(5-C17)+(C18-1)+(5-C19)+(C20-1)+(5-C21)+(C22-1)+(5-C23))*2.5</f>
+        <v>85</v>
+      </c>
+      <c r="D24" s="37">
         <f>(SUM(D14:D23))*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="E24" s="37">
-        <f t="shared" ref="E24:G24" si="1"> ((E14-1)+(5-E15)+(E16-1)+(5-E17)+(E18-1)+(5-E19)+(E20-1)+(5-E21)+(E22-1)+(5-E23))*2.5</f>
-        <v>50</v>
-      </c>
-      <c r="F24" s="38">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="G24" s="39">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="E24" s="38">
+        <f t="shared" ref="E24:G24" si="0">((E14-1)+(5-E15)+(E16-1)+(5-E17)+(E18-1)+(5-E19)+(E20-1)+(5-E21)+(E22-1)+(5-E23))*2.5</f>
+        <v>72.5</v>
+      </c>
+      <c r="F24" s="39">
+        <f>((F14-1)+(5-F15)+(F15-1)+(5-F17)+(F18-1)+(5-F19)+(F20-1)+(5-F21)+(F22-1)+(5-F23))*2.5</f>
+        <v>57.5</v>
+      </c>
+      <c r="G24" s="40">
+        <f t="shared" si="0"/>
+        <v>77.5</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" ht="25.5" customHeight="1">
-      <c r="B25" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="41"/>
+      <c r="B25" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="42"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="41"/>
+      <c r="B26" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="40" t="s">
-        <v>39</v>
+      <c r="B27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="42" t="s">
-        <v>40</v>
+      <c r="B28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="42" t="s">
-        <v>41</v>
+      <c r="B29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="42" t="s">
-        <v>42</v>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="43" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2045,23 +2662,69 @@
     <row r="1006" ht="15.75" customHeight="1"/>
     <row r="1007" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="C24 E24:G24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>40</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 1 and 5" sqref="C14:C23 E14:G23">
-      <formula1>1.0</formula1>
-      <formula2>5.0</formula2>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B34"/>
   </hyperlinks>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToWidth="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="1"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup blackAndWhite="0" cellComments="atEnd" copies="1" draft="0" errors="displayed" firstPageNumber="-1" fitToHeight="1" fitToWidth="0" horizontalDpi="600" orientation="landscape" pageOrder="overThenDown" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="lessThan" id="{00DE0031-00FD-4798-934F-00E200AC00B3}">
+            <xm:f>40</xm:f>
+            <x14:dxf>
+              <font/>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFB7E1CD"/>
+                  <bgColor rgb="FFB7E1CD"/>
+                </patternFill>
+              </fill>
+              <border>
+                <left style="none">
+                  <color theme="1"/>
+                </left>
+                <right style="none">
+                  <color theme="1"/>
+                </right>
+                <top style="none">
+                  <color theme="1"/>
+                </top>
+                <bottom style="none">
+                  <color theme="1"/>
+                </bottom>
+                <diagonal style="none">
+                  <color theme="1"/>
+                </diagonal>
+                <vertical style="none">
+                  <color theme="1"/>
+                </vertical>
+                <horizontal style="none">
+                  <color theme="1"/>
+                </horizontal>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C24 E24:G24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
+        <x14:dataValidation xr:uid="{003F00CE-007B-4979-B40E-007400B600AB}" type="decimal" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" prompt="Enter a number between 1 and 5" showDropDown="1" showErrorMessage="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>1.0</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>5.0</xm:f>
+          </x14:formula2>
+          <xm:sqref>C14:C23 E14:G14 E15 G15 E16 G16 E17:G23 F15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>